--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_1_6.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_1_6.XLSX
@@ -153,9 +153,6 @@
     <t>CEZAR MACHADO DE JESUS</t>
   </si>
   <si>
-    <t>WILSON SOUZA DOS SANTOS</t>
-  </si>
-  <si>
     <t>MELQUIZEDEQUE C. FLOR</t>
   </si>
   <si>
@@ -240,12 +237,12 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1166</t>
   </si>
   <si>
-    <t>2159</t>
-  </si>
-  <si>
     <t>2516</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>3952</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
